--- a/ManageSYS/templates/生产/原料每日用量.xlsx
+++ b/ManageSYS/templates/生产/原料每日用量.xlsx
@@ -336,10 +336,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -348,10 +348,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -658,18 +658,23 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.25" customWidth="1"/>
-    <col min="12" max="12" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="7.125" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="6.75" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="11" width="5.375" customWidth="1"/>
+    <col min="12" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="26.25" thickBot="1">
@@ -694,41 +699,41 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="16"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="12"/>
+      <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:14" s="2" customFormat="1">
       <c r="A4" s="14"/>

--- a/ManageSYS/templates/生产/原料每日用量.xlsx
+++ b/ManageSYS/templates/生产/原料每日用量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>原料用量表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>产品得率（%）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回填液投入（kg)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -155,38 +159,31 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -195,81 +192,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -311,6 +239,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -318,40 +255,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -655,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -677,101 +607,119 @@
     <col min="12" max="12" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1" ht="26.25" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="25.5">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-    </row>
-    <row r="2" spans="1:14" s="2" customFormat="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" s="2" customFormat="1">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1">
-      <c r="A3" s="13" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="16"/>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6" t="s">
+      <c r="O3" s="9"/>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="L4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="M4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="6">
+      <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="O4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -784,8 +732,11 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -798,8 +749,11 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -812,8 +766,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -826,8 +783,11 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -840,8 +800,11 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -854,8 +817,11 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -868,8 +834,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -882,8 +851,11 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -896,8 +868,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -910,8 +885,11 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -924,8 +902,11 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -938,8 +919,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -952,8 +936,11 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -966,8 +953,11 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -980,8 +970,11 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -994,8 +987,11 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1008,8 +1004,11 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1022,8 +1021,11 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1036,8 +1038,11 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1050,8 +1055,11 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1064,8 +1072,11 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1078,8 +1089,11 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1092,8 +1106,11 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1106,8 +1123,11 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1120,8 +1140,11 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1134,8 +1157,11 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1148,8 +1174,11 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1162,8 +1191,11 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1176,8 +1208,11 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1190,8 +1225,11 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1204,8 +1242,11 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1218,16 +1259,20 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B2:L2"/>
+  <mergeCells count="8">
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:O3"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
